--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smonsalve\Dropbox\5.LEONISA\DataThursdays.github.io\sesiones\TT03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smonsalve\Dropbox\5.LEONISA\DataThursdays.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Ana Cristina Jaramillo M</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>Incapacitada</t>
+  </si>
+  <si>
+    <t>Angelica Gomez</t>
   </si>
 </sst>
 </file>
@@ -334,12 +340,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -354,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -378,6 +408,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,10 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +1003,10 @@
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1008,15 +1043,21 @@
       <c r="L1" s="11">
         <v>43265</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="11">
         <v>43272</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9">
+        <v>43279</v>
+      </c>
+      <c r="O1" s="9">
+        <v>43286</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D2">
@@ -1034,13 +1075,19 @@
       <c r="L2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="N2">
+      <c r="M2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2">
         <f>SUM(B2:L2)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B3">
@@ -1067,14 +1114,24 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <f>SUM(B3:L3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
@@ -1102,12 +1159,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4">
-        <f t="shared" ref="N4:N29" si="0">SUM(B4:L4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P30" si="0">SUM(B4:L4)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1127,13 +1188,14 @@
         <v>1</v>
       </c>
       <c r="L5" s="12"/>
-      <c r="N5">
+      <c r="M5" s="12"/>
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E6">
@@ -1146,13 +1208,14 @@
         <v>1</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="N6">
+      <c r="M6" s="12"/>
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D7">
@@ -1162,13 +1225,14 @@
         <v>0</v>
       </c>
       <c r="L7" s="12"/>
-      <c r="N7">
+      <c r="M7" s="12"/>
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C8">
@@ -1190,12 +1254,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="N8">
+      <c r="M8" s="12"/>
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
@@ -1203,13 +1268,14 @@
         <v>0</v>
       </c>
       <c r="L9" s="12"/>
-      <c r="N9">
+      <c r="M9" s="12"/>
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B10">
@@ -1219,26 +1285,28 @@
         <v>1</v>
       </c>
       <c r="L10" s="12"/>
-      <c r="N10">
+      <c r="M10" s="12"/>
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="L11" s="12"/>
-      <c r="N11">
+      <c r="M11" s="12"/>
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12">
@@ -1263,13 +1331,17 @@
         <v>1</v>
       </c>
       <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B13">
@@ -1294,23 +1366,28 @@
         <v>1</v>
       </c>
       <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
       <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L14" s="12"/>
-      <c r="N14">
+      <c r="M14" s="12"/>
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D15">
@@ -1320,13 +1397,14 @@
         <v>0</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="N15">
+      <c r="M15" s="12"/>
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B16">
@@ -1336,13 +1414,14 @@
         <v>0</v>
       </c>
       <c r="L16" s="12"/>
-      <c r="N16">
+      <c r="M16" s="12"/>
+      <c r="P16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C17">
@@ -1361,13 +1440,14 @@
         <v>1</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="N17">
+      <c r="M17" s="12"/>
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B18">
@@ -1392,12 +1472,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="12"/>
-      <c r="N18">
+      <c r="M18" s="12"/>
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -1417,13 +1498,14 @@
         <v>1</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="N19">
+      <c r="M19" s="12"/>
+      <c r="P19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D20">
@@ -1439,13 +1521,14 @@
         <v>1</v>
       </c>
       <c r="L20" s="12"/>
-      <c r="N20">
+      <c r="M20" s="12"/>
+      <c r="P20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D21">
@@ -1470,344 +1553,374 @@
         <v>1</v>
       </c>
       <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="N22">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="P23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="N23">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="N24">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="N25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="P26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="N26">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="N27">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="P28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="N28">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="N29">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="P30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>82</v>
       </c>
-      <c r="B31">
-        <f>SUM(B2:B30)</f>
+      <c r="B32">
+        <f>SUM(B2:B31)</f>
         <v>9</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:H31" si="1">SUM(C2:C30)</f>
+      <c r="C32">
+        <f t="shared" ref="C32:H32" si="1">SUM(C2:C31)</f>
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N31">
-        <f>AVERAGE(N2:N29)</f>
-        <v>4.1428571428571432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="P32">
+        <f>AVERAGE(P2:P30)</f>
+        <v>4.1785714285714288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>80</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>81</v>
       </c>
-      <c r="B37">
-        <f t="shared" ref="B37:K37" si="2">SUM(B2:B30)</f>
+      <c r="B38">
+        <f t="shared" ref="B38:K38" si="2">SUM(B2:B31)</f>
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L37">
-        <f>SUM(L2:L30)</f>
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <f>SUM(L2:L31)</f>
         <v>0</v>
       </c>
-      <c r="N37">
-        <f t="shared" ref="N37" si="3">SUM(B37:H37)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N42" s="10"/>
+      <c r="P38">
+        <f>SUM(B38:M38)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:L29"/>
+  <mergeCells count="2">
+    <mergeCell ref="L2:L30"/>
+    <mergeCell ref="M2:M30"/>
   </mergeCells>
   <conditionalFormatting sqref="E4">
     <cfRule type="colorScale" priority="6">
@@ -1821,7 +1934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N29 N31">
+  <conditionalFormatting sqref="P2:P30 P32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1845,7 +1958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1857,7 +1970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1869,7 +1982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
   <si>
     <t>Ana Cristina Jaramillo M</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Angelica Gomez</t>
+  </si>
+  <si>
+    <t>Diana Medina</t>
+  </si>
+  <si>
+    <t>Camilo Montoya</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -412,6 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,13 +1081,16 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="17" t="s">
         <v>83</v>
       </c>
       <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
         <v>74</v>
       </c>
       <c r="P2">
@@ -1120,8 +1132,8 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3">
         <v>1</v>
       </c>
@@ -1158,8 +1170,8 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4">
         <v>1</v>
       </c>
@@ -1187,11 +1199,20 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1207,8 +1228,8 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1224,8 +1245,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1253,8 +1274,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1267,8 +1288,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1284,8 +1305,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1298,8 +1319,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1330,8 +1351,8 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1365,8 +1386,8 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1379,8 +1400,8 @@
       <c r="A14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1396,8 +1417,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1413,8 +1434,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1439,8 +1460,8 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1471,8 +1492,8 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1497,8 +1518,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="O19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1520,8 +1544,8 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
       <c r="P20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1552,8 +1576,8 @@
       <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1567,8 +1591,8 @@
         <v>85</v>
       </c>
       <c r="K22" s="10"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1589,8 +1613,8 @@
       <c r="G23" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
       <c r="P23">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1615,9 +1639,12 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>1</v>
       </c>
       <c r="P24">
@@ -1656,8 +1683,8 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1691,8 +1718,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="O26">
+        <v>1</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,9 +1762,12 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
       <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>1</v>
       </c>
       <c r="P27">
@@ -1764,8 +1797,8 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
       <c r="P28">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1784,8 +1817,8 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
       <c r="P29">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1804,118 +1837,143 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="P30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
-      <c r="B32">
-        <f>SUM(B2:B31)</f>
+      <c r="B35">
+        <f>SUM(B2:B34)</f>
         <v>9</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="C32:H32" si="1">SUM(C2:C31)</f>
+      <c r="C35">
+        <f t="shared" ref="C35:H35" si="1">SUM(C2:C34)</f>
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P32">
+      <c r="P35">
         <f>AVERAGE(P2:P30)</f>
-        <v>4.1785714285714288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
-      <c r="B38">
-        <f t="shared" ref="B38:K38" si="2">SUM(B2:B31)</f>
+      <c r="B41">
+        <f t="shared" ref="B41:K41" si="2">SUM(B2:B34)</f>
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="C41">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H38">
+      <c r="H41">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I38">
+      <c r="I41">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K38">
+      <c r="J41">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="L38">
-        <f>SUM(L2:L31)</f>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <f>SUM(L2:L34)</f>
         <v>0</v>
       </c>
-      <c r="P38">
-        <f>SUM(B38:M38)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P43" s="10"/>
+      <c r="P41">
+        <f>SUM(B41:M41)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1934,7 +1992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P30 P32">
+  <conditionalFormatting sqref="P2:P33 P35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
